--- a/Youngs_modulus/calc_Youngs_modulus.xlsx
+++ b/Youngs_modulus/calc_Youngs_modulus.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\mopac-Exercise\Youngs_modulus\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\mopac-Exercise\Youngs_modulus\PM7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717C88A2-E471-4AA0-8280-3AA00B96369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11239696-BE7C-4F1D-904B-9D8DF0530D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="870" windowWidth="12250" windowHeight="9990" xr2:uid="{455742C6-91C9-4155-8A0A-244BA9EC8F68}"/>
+    <workbookView xWindow="6380" yWindow="1410" windowWidth="12250" windowHeight="9990" xr2:uid="{455742C6-91C9-4155-8A0A-244BA9EC8F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>[cm^3/mol]</t>
-  </si>
-  <si>
     <t>HOF at L0</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -105,14 +102,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>L1=L0*1.006</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>L1=L0*1.009</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>K</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -133,6 +122,18 @@
   </si>
   <si>
     <t>output</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1=L0*1.001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L1=L0*1.002</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[g/cm^3]</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,9 +142,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="179" formatCode="0.000000"/>
-    <numFmt numFmtId="181" formatCode="0.0000"/>
-    <numFmt numFmtId="182" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="178" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -200,7 +201,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
@@ -212,10 +213,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -535,7 +536,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -544,6 +545,7 @@
     <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -552,13 +554,14 @@
         <v>4</v>
       </c>
       <c r="B1" s="2">
-        <v>0.9375</v>
+        <f>(0.942+0.97)/2</f>
+        <v>0.95599999999999996</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -572,7 +575,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -591,128 +594,129 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>-111.03615000000001</v>
+        <v>-106.55971</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="F6" s="6">
         <f>B3</f>
         <v>7.7469279999999996</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-105.16361999999999</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6">
+        <f>F6*1.001</f>
+        <v>7.7546749279999991</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="1">
-        <v>-106.05410999999999</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" s="1">
+        <v>-103.67192</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>10</v>
       </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F8" s="6">
+        <f>F6*1.002</f>
+        <v>7.7624218559999996</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-102.15443999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="6">
         <f>F6*1.003</f>
         <v>7.7701687839999991</v>
       </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1">
-        <v>-100.24464999999999</v>
-      </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="5">
-        <f>F6*1.006</f>
-        <v>7.7934095679999995</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-93.781109999999998</v>
-      </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="5">
-        <f>F6*1.009</f>
-        <v>7.816650351999999</v>
-      </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="6">
-        <f>2*((B9-B6) -2*(B8-B6) +(B7-B6))/(B3^2*0.000018)</f>
-        <v>1210.9586703111022</v>
+        <v>17</v>
+      </c>
+      <c r="B11" s="5">
+        <f>2*((B9-B6) -2*(B8-B6) +(B7-B6))/(B3^2*(0.003^2 -2*0.002^2+0.001^2))</f>
+        <v>429.56003957575837</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="4">
         <f>B11*(B3^2/(B2/B1))/1000</f>
-        <v>0.80956137932781835</v>
+        <v>0.29284037223994025</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Youngs_modulus/calc_Youngs_modulus.xlsx
+++ b/Youngs_modulus/calc_Youngs_modulus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inukai\Desktop\mopac-Exercise\Youngs_modulus\PM7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11239696-BE7C-4F1D-904B-9D8DF0530D96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B0DD0F-F496-4BE4-9642-CF833B29A95C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="1410" windowWidth="12250" windowHeight="9990" xr2:uid="{455742C6-91C9-4155-8A0A-244BA9EC8F68}"/>
+    <workbookView xWindow="7020" yWindow="1460" windowWidth="12250" windowHeight="9990" xr2:uid="{455742C6-91C9-4155-8A0A-244BA9EC8F68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -554,8 +554,8 @@
         <v>4</v>
       </c>
       <c r="B1" s="2">
-        <f>(0.942+0.97)/2</f>
-        <v>0.95599999999999996</v>
+        <f>(0.91+0.93)/2</f>
+        <v>0.92</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -708,7 +708,7 @@
       </c>
       <c r="B12" s="4">
         <f>B11*(B3^2/(B2/B1))/1000</f>
-        <v>0.29284037223994025</v>
+        <v>0.28181291052379187</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
